--- a/HS Imposto de Renda.xlsx
+++ b/HS Imposto de Renda.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6690" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TITULAR" sheetId="1" r:id="rId1"/>
@@ -286,13 +286,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="7">
-    <numFmt numFmtId="170" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
-    <numFmt numFmtId="173" formatCode="00000\-000"/>
-    <numFmt numFmtId="174" formatCode="&quot;(&quot;00&quot;) &quot;0000&quot;-&quot;0000"/>
-    <numFmt numFmtId="175" formatCode="&quot;(&quot;00&quot;) &quot;00000&quot;-&quot;0000"/>
-    <numFmt numFmtId="176" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="177" formatCode="mmmm\-yyyy"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
+    <numFmt numFmtId="165" formatCode="00000\-000"/>
+    <numFmt numFmtId="166" formatCode="&quot;(&quot;00&quot;) &quot;0000&quot;-&quot;0000"/>
+    <numFmt numFmtId="167" formatCode="&quot;(&quot;00&quot;) &quot;00000&quot;-&quot;0000"/>
+    <numFmt numFmtId="168" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="169" formatCode="mmmm\-yyyy"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -486,7 +486,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1"/>
   </cellStyleXfs>
@@ -496,36 +496,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="4" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -537,7 +524,7 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="6" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -545,15 +532,15 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="6" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="174" fontId="6" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="175" fontId="6" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -561,7 +548,7 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -569,17 +556,30 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -592,30 +592,6 @@
     <cellStyle name="Título 1" xfId="1" builtinId="16"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -632,7 +608,7 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="176" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <numFmt numFmtId="168" formatCode="&quot;R$&quot;\ #,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
@@ -673,6 +649,30 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4899,12 +4899,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="C8:E37" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="C8:E37" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="C8:E37"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATA" dataDxfId="3"/>
-    <tableColumn id="2" name="CATEGORIA" dataDxfId="2"/>
-    <tableColumn id="3" name="VALOR" dataDxfId="1"/>
+    <tableColumn id="1" name="DATA" dataDxfId="2"/>
+    <tableColumn id="2" name="CATEGORIA" dataDxfId="1"/>
+    <tableColumn id="3" name="VALOR" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5176,7 +5176,7 @@
   <sheetPr codeName="Plan1"/>
   <dimension ref="A3:E24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -5188,18 +5188,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="4"/>
@@ -5212,102 +5212,102 @@
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="15"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="23"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="24"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="25"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="15"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="19"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="19"/>
+      <c r="D20" s="15"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
@@ -5353,7 +5353,7 @@
   <dimension ref="A3:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5365,120 +5365,120 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>500000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>50000530</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>500000433</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="2">
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C7:D7"/>
@@ -5518,8 +5518,8 @@
   <sheetPr codeName="Plan3"/>
   <dimension ref="A3:E37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5532,18 +5532,18 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
@@ -5556,177 +5556,177 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C9" s="26">
+      <c r="C9" s="22">
         <v>45775</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="24">
         <v>3000</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
     </row>
     <row r="17" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
     </row>
     <row r="20" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
     </row>
     <row r="24" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="28"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
     </row>
     <row r="26" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="28"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
     </row>
     <row r="27" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
     </row>
     <row r="28" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
     </row>
     <row r="29" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="28"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
     </row>
     <row r="30" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="28"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="24"/>
     </row>
     <row r="31" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="28"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
     </row>
     <row r="32" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="28"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
     </row>
     <row r="33" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="28"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="24"/>
     </row>
     <row r="34" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="28"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="24"/>
     </row>
     <row r="35" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C35" s="17"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="28"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="24"/>
     </row>
     <row r="36" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="28"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="24"/>
     </row>
     <row r="37" spans="3:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C37" s="17"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="28"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="3">
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C3:E3"/>
@@ -5757,257 +5757,257 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>70</v>
       </c>
     </row>
